--- a/Data/place_with_facts.xlsx
+++ b/Data/place_with_facts.xlsx
@@ -36,10 +36,14 @@
     <t>Shri Janardhana Swamy Temple</t>
   </si>
   <si>
-    <t>🏛️ Sri Janardhana Swamy Temple in Varkala, Kerala is a historic Vishnu temple believed to be over 2,000 years old! 🙏✨
-🔔 A special bell here was inscribed in 1757. It is said that the captain of a Dutch ship that sank near Varkala dedicated this bell in remembrance. The names ""Peter Van Belson"" and ""Michel Everard"" are engraved on it.
-🎉 The temple’s famous ""Arattu"" festival is celebrated grandly for 10 days in March-April. The highlight is the grand procession of decorated elephants 🐘, which attracts both devotees and tourists alike.
-🙏 Spirituality, history, and beauty—you can experience them all in one place! Visit this temple once for a divine experience! 🏰✨</t>
+    <t>இனிய காலை வணக்கம் 🌅
+🛡️ கித்தூர் கோட்டை – பெலகாவி, கர்நாடகா
+👑 கித்தூர் ராணி சென்னம்மா – பிரிட்டிஷாருக்கு எதிராக போராடிய கர்நாடகாவின் முதல் வீர மங்கையர்! ⚔️🔥
+💔 ஆனால் துரோகிகள் ஆயுத குணப்பொடியில் மாடுச் சாணம் கலக்கி, பிரிட்டிஷாருக்கு எதிரான போரில் கோட்டையை பாதுகாக்க முடியாத நிலை உருவாக்கப்பட்டது. 🏰💥
+📜 1857 போருக்கு முன்னரே, 1824 ஆம் ஆண்டு தனது வீரத்தால் பிரிட்டிஷாருக்கு எதிராக முதல் போரை நடத்தினார்! ⏳🚩
+🎯 முதல் போரில் வெற்றி பெற்று, இரண்டு பிரிட்டிஷ் அதிகாரிகளை சிறையிலடைத்தார்! 🏹🎖️
+✨ இந்த வரலாற்று கோட்டைக்கு வரிசென்று பார்வையிட விரும்புகிறரகள?
+📞 பயண ஏற்பாடுகளுக்கு எங்களை தொடர்பு கொள்ளுங்கள் – 6380013636! 🚗</t>
   </si>
 </sst>
 </file>

--- a/Data/place_with_facts.xlsx
+++ b/Data/place_with_facts.xlsx
@@ -368,13 +368,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -393,7 +393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
